--- a/trunk/src/test/target/v850esfk3/test/add1/TEST_ADD1.xlsx
+++ b/trunk/src/test/target/v850esfk3/test/add1/TEST_ADD1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="TEST_SPEC" sheetId="4" r:id="rId1"/>
@@ -571,10 +571,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ldsr r22, psw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>★テスト結果判定</t>
     <rPh sb="4" eb="6">
       <t>ケッカ</t>
@@ -635,10 +631,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ldsr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bne</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -803,6 +795,14 @@
   </si>
   <si>
     <t>FFFFFFFD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stsr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　stsr psw, r22</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1462,7 +1462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1480,10 +1480,10 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -1502,7 +1502,7 @@
         <v>69</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>68</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="4" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>66</v>
@@ -1522,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>1</v>
@@ -1530,19 +1530,19 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G6" s="28"/>
     </row>
@@ -1560,13 +1560,13 @@
     </row>
     <row r="8" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" s="4">
         <v>4</v>
@@ -1580,19 +1580,19 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
@@ -1618,13 +1618,13 @@
     </row>
     <row r="12" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E12" s="4">
         <v>9</v>
@@ -1644,19 +1644,19 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
@@ -1668,13 +1668,13 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>59</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>74</v>
@@ -1708,16 +1708,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:I14"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
@@ -1725,6 +1715,16 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1737,7 +1737,7 @@
   <dimension ref="B2:G40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="205" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>76</v>
@@ -1783,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>77</v>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>77</v>
@@ -1833,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>79</v>
@@ -1847,12 +1847,12 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>65</v>
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
@@ -1879,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
@@ -1887,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
@@ -1907,7 +1907,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="18" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>95</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -2630,7 +2630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -3464,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G17" s="7" t="str">
         <f t="shared" si="3"/>
@@ -5622,7 +5622,7 @@
         <v>32</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H55" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5678,7 +5678,7 @@
         <v>33</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H56" s="7" t="str">
         <f t="shared" si="4"/>
